--- a/data/2019/Fell/Extracted Lee Mill.xlsx
+++ b/data/2019/Fell/Extracted Lee Mill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2019\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED3A983-4F40-4CA6-A776-1B8DFF1B82C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94DA19-DD55-4BB5-814D-7130AF6ABC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -6905,10 +6905,10 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12" customHeight="1"/>
@@ -7054,9 +7054,7 @@
       <c r="I6" s="37">
         <v>13</v>
       </c>
-      <c r="K6" s="37">
-        <v>0</v>
-      </c>
+      <c r="K6" s="37"/>
       <c r="O6" s="37">
         <v>24</v>
       </c>
@@ -7753,7 +7751,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
